--- a/ex12/aprovados.xlsx
+++ b/ex12/aprovados.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/07/2022</t>
+          <t>13/12/2023</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24/06/2022</t>
+          <t>16/12/2023</t>
         </is>
       </c>
     </row>
